--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4091C9-BCAC-446C-8773-E45DD0DEA044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32758542-46D3-442C-A639-8BD15C97AA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -592,92 +592,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Возврошает разнве статусы
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Target Докрутились до цели или нет возврошаемые значения 0 - двиготель крутится. 1 докрутились до цели. 2- ошибка вращения. 3 - двигатель начал движение не в сторону цели
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A1 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>положение по концевикам 0 - на концевике №1. 1 - между концевиками. 2 -  на концевике №2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-A2 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Сколько шагов сделал мотор за последную операцию
-</t>
-    </r>
-  </si>
-  <si>
     <t>Acceleration-Slowdown</t>
-  </si>
-  <si>
-    <t>Ускорение замедление 
-A0 - установить ускарение
-A1 - получить текущее ускорение
-A2 - установить замедление
-A3 - получить текущее замедление</t>
   </si>
   <si>
     <t xml:space="preserve">C6A0D10N0x
@@ -855,6 +770,91 @@
   </si>
   <si>
     <t xml:space="preserve">Перезагрузить </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Возврошает разные статусы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Target Докрутились до цели или нет возврошаемые значения 0 - двиготель крутится. 1 докрутились до цели. 2- ошибка вращения. 3 - двигатель начал движение не в сторону цели
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A1 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>положение по концевикам 0 - на концевике №1. 1 - между концевиками. 2 -  на концевике №2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Сколько шагов сделал мотор за последную операцию
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Ускорение замедление 
+A0 - установить ускорение
+A1 - получить текущее ускорение
+A2 - установить замедление
+A3 - получить текущее замедление</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,7 +1441,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1462,7 +1462,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1477,7 +1477,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -1493,14 +1493,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1512,14 +1512,14 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1531,14 +1531,14 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1550,14 +1550,14 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1569,14 +1569,14 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1591,7 +1591,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -1610,7 +1610,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">

--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F1A9CF-5EE3-4520-9A62-7CEC4AE413AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101BB74-E708-4915-BABA-8D9B8F61DBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="84" windowWidth="19116" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$3:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Десятичная</t>
   </si>
@@ -65,9 +72,6 @@
   </si>
   <si>
     <t>0x0B</t>
-  </si>
-  <si>
-    <t>Значение по умолчанию</t>
   </si>
   <si>
     <t>0x0D</t>
@@ -198,13 +202,6 @@
 N0 - имя канала, число от 0 до 48 </t>
   </si>
   <si>
-    <t>C3A1D100N0x
-C3 - комманда
-A1 -  0 записать 1 прочитать
-D100 - число для записи
-N0 -</t>
-  </si>
-  <si>
     <t>Direct</t>
   </si>
   <si>
@@ -234,10 +231,6 @@
 N0 -</t>
   </si>
   <si>
-    <t xml:space="preserve">Режим врашения до цели или бесконечно
-Заложена на будущее не реализованно </t>
-  </si>
-  <si>
     <t>C9A0D0N0x
 C9 - Время без движения
 A0 -  0 записать 1 прочитать
@@ -259,11 +252,6 @@
 A1 - получить текущее ускорение
 A2 - установить замедление
 A3 - получить текущее замедление</t>
-  </si>
-  <si>
-    <t>D1 - бесконечно с энкодером(не реализовано)
-D2 - бесконечн
-D3 - Количество шагов по энкодеру</t>
   </si>
   <si>
     <t>C2A0D0N0x
@@ -404,16 +392,64 @@
     </r>
   </si>
   <si>
-    <t>C1A0D1N0x
+    <t>Запуск мотора и остановка мотора</t>
+  </si>
+  <si>
+    <t>D1 - бесконечно с энкодером(не реализовано)
+D2 - бесконечн
+D3 - Количество шагов по счетчику
+D4 - Количество шагов по энкодеру</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Режим врашения до цели или бесконечно </t>
+  </si>
+  <si>
+    <t>Описание Значений</t>
+  </si>
+  <si>
+    <t>C9A0D3N0x</t>
+  </si>
+  <si>
+    <t>C7A0D70N0x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1A0D1N0x
 C1 - комманда
 A0 -
-D1 - 1 старт стартует и крутится до значения указанного в Target
- 0 принудительный стоп из любого режима
+D1 - 1 старт стартует и крутится до значения указанного в Target или бесконечно
+ 0 - принудительный стоп из любого режима
 2- экстренный стоп
-N1 - 0</t>
-  </si>
-  <si>
-    <t>Запуск мотора и остановка мотора</t>
+N1 - </t>
+  </si>
+  <si>
+    <t>C4A0D1000N0x</t>
+  </si>
+  <si>
+    <t>C3A0D990N300x</t>
+  </si>
+  <si>
+    <t>C3A1D100N0x
+C3 - комманда
+A1 -  0 записать 1 прочитать
+D990 - число для записи
+N300 - начальная скорость</t>
+  </si>
+  <si>
+    <t>Комманды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новые функции </t>
+  </si>
+  <si>
+    <t>25.05.2024
+Добавлен экстренный стоп(без торможения)</t>
+  </si>
+  <si>
+    <t>Добавлен параметр начальной скорости. С этой скорости начинается разгон</t>
+  </si>
+  <si>
+    <t>C6A2D10N0x
+C6A0D30N0x</t>
   </si>
 </sst>
 </file>
@@ -495,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -527,12 +563,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,6 +602,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -901,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,12 +969,18 @@
     <col min="5" max="5" width="27.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="59.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="43.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="35.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.21875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="1">
+        <f>+K:K</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -929,7 +988,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -943,16 +1002,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -960,18 +1025,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="6"/>
+      <c r="I4" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -979,18 +1048,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -998,20 +1069,26 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1019,20 +1096,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="229.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="229.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1040,18 +1120,18 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1059,18 +1139,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1078,18 +1162,21 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1097,18 +1184,18 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1116,20 +1203,23 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1137,18 +1227,18 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1156,128 +1246,128 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
         <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="156.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="156.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6">
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="166.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6">
         <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6">
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6">
         <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6">
         <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G20" s="6"/>
     </row>

--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101BB74-E708-4915-BABA-8D9B8F61DBD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-13065" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$3:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -134,20 +133,6 @@
     <t>ip адрес</t>
   </si>
   <si>
-    <t>C9A0D0N0x
-C9 - комманда сохранения настроек
-A0 -  
-D0 - 
-N0 -</t>
-  </si>
-  <si>
-    <t>C11A0D0N0x
-C11 - комманда перезагрузки
-A0 -  
-D0 - 
-N0 -</t>
-  </si>
-  <si>
     <t>start/stop</t>
   </si>
   <si>
@@ -226,13 +211,6 @@
   <si>
     <t>C9A0D0N0x
 C9 - Режим вращения
-A0 -  0 записать 1 прочитать
-D0 - 
-N0 -</t>
-  </si>
-  <si>
-    <t>C9A0D0N0x
-C9 - Время без движения
 A0 -  0 записать 1 прочитать
 D0 - 
 N0 -</t>
@@ -451,11 +429,32 @@
     <t>C6A2D10N0x
 C6A0D30N0x</t>
   </si>
+  <si>
+    <t>C11A0D0N0x
+C9 - комманда сохранения настроек
+A0 -  
+D0 - 
+N0 -</t>
+  </si>
+  <si>
+    <t>C12A0D0N0x
+C11 - комманда перезагрузки
+A0 -  
+D0 - 
+N0 -</t>
+  </si>
+  <si>
+    <t>C10A0D0N0x
+C9 - Время без движения
+A0 -  0 записать 1 прочитать
+D0 - 
+N0 -</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,23 +708,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -761,23 +743,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -953,34 +918,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.21875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J1" s="1">
         <f>+K:K</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -988,7 +953,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1008,16 +973,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1025,22 +990,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1048,20 +1013,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1069,26 +1034,26 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1096,23 +1061,23 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="229.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="229.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1120,18 +1085,18 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1139,22 +1104,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1162,21 +1127,21 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1184,18 +1149,18 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1203,23 +1168,23 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1227,18 +1192,18 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1249,15 +1214,15 @@
         <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1268,15 +1233,15 @@
         <v>24</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="156.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="162" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1291,11 +1256,11 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="166.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1310,11 +1275,11 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="193.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1329,11 +1294,11 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1348,11 +1313,11 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="203.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1367,11 +1332,11 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1380,7 +1345,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1389,7 +1354,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1398,7 +1363,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1407,7 +1372,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1416,7 +1381,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1425,7 +1390,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1434,7 +1399,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1443,7 +1408,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1452,7 +1417,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1461,7 +1426,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1470,7 +1435,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1479,7 +1444,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1488,7 +1453,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1497,7 +1462,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1506,7 +1471,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1515,7 +1480,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1524,7 +1489,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1533,7 +1498,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1542,7 +1507,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1551,7 +1516,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1560,7 +1525,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1569,7 +1534,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1578,7 +1543,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1587,7 +1552,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1596,7 +1561,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1605,7 +1570,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1614,7 +1579,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1623,7 +1588,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1643,12 +1608,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1656,12 +1621,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B502B865-AEE6-42D4-B77E-708E06F6DAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-13065" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$3:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -373,12 +374,6 @@
     <t>Запуск мотора и остановка мотора</t>
   </si>
   <si>
-    <t>D1 - бесконечно с энкодером(не реализовано)
-D2 - бесконечн
-D3 - Количество шагов по счетчику
-D4 - Количество шагов по энкодеру</t>
-  </si>
-  <si>
     <t xml:space="preserve">Режим врашения до цели или бесконечно </t>
   </si>
   <si>
@@ -450,11 +445,17 @@
 D0 - 
 N0 -</t>
   </si>
+  <si>
+    <t>D0 - бесконечно с энкодером(не реализовано)
+D1 - бесконечн
+D2 - Количество шагов по счетчику
+D3 - Количество шагов по энкодеру</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,6 +709,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -743,6 +761,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -918,34 +953,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J1" s="1">
         <f>+K:K</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -953,7 +988,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -973,16 +1008,16 @@
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -997,15 +1032,15 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1061,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1043,17 +1078,17 @@
         <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1074,10 +1109,10 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="229.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="229.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1131,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -1115,11 +1150,11 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1138,10 +1173,10 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="134.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1195,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1171,20 +1206,20 @@
         <v>52</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1199,11 +1234,11 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="116.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1218,11 +1253,11 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1237,11 +1272,11 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="162" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="156.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1260,7 +1295,7 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="166.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1314,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="193.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -1298,7 +1333,7 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1352,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="203.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
@@ -1336,7 +1371,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1345,7 +1380,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1354,7 +1389,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1363,7 +1398,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1372,7 +1407,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1381,7 +1416,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1390,7 +1425,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1399,7 +1434,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1408,7 +1443,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1417,7 +1452,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1426,7 +1461,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1435,7 +1470,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1444,7 +1479,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1453,7 +1488,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1462,7 +1497,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1471,7 +1506,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1480,7 +1515,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1489,7 +1524,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1498,7 +1533,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1507,7 +1542,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1516,7 +1551,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1525,7 +1560,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1534,7 +1569,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1543,7 +1578,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1552,7 +1587,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1561,7 +1596,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1570,7 +1605,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1579,7 +1614,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1588,7 +1623,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1608,12 +1643,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1621,12 +1656,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B502B865-AEE6-42D4-B77E-708E06F6DAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E33CF-A316-4E7F-AC95-05FC3353F58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Десятичная</t>
   </si>
@@ -386,15 +386,6 @@
     <t>C7A0D70N0x</t>
   </si>
   <si>
-    <t xml:space="preserve">C1A0D1N0x
-C1 - комманда
-A0 -
-D1 - 1 старт стартует и крутится до значения указанного в Target или бесконечно
- 0 - принудительный стоп из любого режима
-2- экстренный стоп
-N1 - </t>
-  </si>
-  <si>
     <t>C4A0D1000N0x</t>
   </si>
   <si>
@@ -414,10 +405,6 @@
     <t xml:space="preserve">Новые функции </t>
   </si>
   <si>
-    <t>25.05.2024
-Добавлен экстренный стоп(без торможения)</t>
-  </si>
-  <si>
     <t>Добавлен параметр начальной скорости. С этой скорости начинается разгон</t>
   </si>
   <si>
@@ -450,6 +437,27 @@
 D1 - бесконечн
 D2 - Количество шагов по счетчику
 D3 - Количество шагов по энкодеру</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1A0D1N0x
+C1 - комманда
+A0 -  0 записать 1 прочитать
+D1 - 1 старт стартует и крутится до значения указанного в Target или бесконечно
+ 0 - принудительный стоп из любого режима
+2- экстренный стоп
+N1 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.05.2024
+Добавлен экстренный стоп(без торможения)
+</t>
+  </si>
+  <si>
+    <t>Возврощаемое значение при A1
+MOTION = 0
+STOPPED = 1
+ACCEL = 2
+BRAKING = 3</t>
   </si>
 </sst>
 </file>
@@ -956,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,10 +1019,10 @@
         <v>71</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1032,12 +1040,14 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.3">
@@ -1078,14 +1088,14 @@
         <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,7 +1119,7 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="229.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1150,7 +1160,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -1213,7 +1223,7 @@
         <v>55</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>72</v>
@@ -1234,7 +1244,7 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" s="8"/>
     </row>
@@ -1253,7 +1263,7 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -1272,7 +1282,7 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G15" s="6"/>
     </row>

--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E33CF-A316-4E7F-AC95-05FC3353F58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BCDD95-4E77-4F18-BB2F-CC04AB02BCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,25 +439,26 @@
 D3 - Количество шагов по энкодеру</t>
   </si>
   <si>
+    <t xml:space="preserve">25.05.2024
+Добавлен экстренный стоп(без торможения)
+</t>
+  </si>
+  <si>
+    <t>Возврощаемое значение при A1
+MOTION = 0
+STOPPED = 1
+ACCEL = 2
+BRAKING = 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1A0D1N0x
 C1 - комманда
 A0 -  0 записать 1 прочитать
 D1 - 1 старт стартует и крутится до значения указанного в Target или бесконечно
  0 - принудительный стоп из любого режима
 2- экстренный стоп
+3- установить планку в начальнцю позицию
 N1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.05.2024
-Добавлен экстренный стоп(без торможения)
-</t>
-  </si>
-  <si>
-    <t>Возврощаемое значение при A1
-MOTION = 0
-STOPPED = 1
-ACCEL = 2
-BRAKING = 3</t>
   </si>
 </sst>
 </file>
@@ -964,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,14 +1041,14 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.3">

--- a/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
+++ b/Universal_Driver_soft/UD_v3.1_stepEnc/Map Registers UD3.2 step.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BCDD95-4E77-4F18-BB2F-CC04AB02BCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF64074-DA9A-47C4-93BC-61E716CC6C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$3:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$3:$G$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Десятичная</t>
   </si>
@@ -208,13 +208,6 @@
  A0 - Запись D0 - CW. D1 - CCW.
 При выполнении этой команды мотор должен быть остановлен
 A1 - Возврощаемое значение 0 - CW. 1 - CCW</t>
-  </si>
-  <si>
-    <t>C9A0D0N0x
-C9 - Режим вращения
-A0 -  0 записать 1 прочитать
-D0 - 
-N0 -</t>
   </si>
   <si>
     <t>Время в милисекундах, если в течении этого времени мотор не будет вращаться или не будут поступать сигналы с обратной связи (энкодер) то будет произведена принудительная остановка</t>
@@ -433,12 +426,6 @@
 N0 -</t>
   </si>
   <si>
-    <t>D0 - бесконечно с энкодером(не реализовано)
-D1 - бесконечн
-D2 - Количество шагов по счетчику
-D3 - Количество шагов по энкодеру</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.05.2024
 Добавлен экстренный стоп(без торможения)
 </t>
@@ -459,6 +446,79 @@
 2- экстренный стоп
 3- установить планку в начальнцю позицию
 N1 - </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>режим вращения</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+C9A0D0N0x
+C9 - Режим вращения
+A0 -  0 записать 1 прочитать
+D0 - режим
+N0 -</t>
+    </r>
+  </si>
+  <si>
+    <t>A0 - установка режима вращения
+A1 - чтенение реджима вращения
+D0 - бесконечно с энкодером(не реализовано)
+D1 - бесконечн
+D2 - Количество шагов по счетчику
+D3 - Количество шагов по энкодеру
+D4 - Количество шагов по счетчику остановка по концевику</t>
+  </si>
+  <si>
+    <t>A2 - установка типа мотора
+A3 - чтенение типа мотора
+D0 - шаговый мотор
+D1 - BLDC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тип мотора</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+C9A2D0N0x
+C9 - Режим вращения
+A0 -  0 записать 1 прочитать
+D0 - тип мотора
+N0 -</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -540,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -583,12 +643,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,6 +703,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -965,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,7 +1069,7 @@
     <col min="4" max="4" width="54.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="59.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="32.33203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
@@ -1017,13 +1109,13 @@
         <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1037,18 +1129,18 @@
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="156" customHeight="1" x14ac:dyDescent="0.3">
@@ -1066,7 +1158,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1089,14 +1181,14 @@
         <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="129" customHeight="1" x14ac:dyDescent="0.3">
@@ -1116,11 +1208,11 @@
         <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="229.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1134,11 +1226,11 @@
         <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -1153,7 +1245,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -1161,7 +1253,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -1184,7 +1276,7 @@
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1206,190 +1298,195 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:10" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="12">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>70</v>
+      <c r="D12" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="E14" s="8"/>
       <c r="F14" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="156.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="87" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="166.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+    <row r="21" spans="1:7" ht="156.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -1644,11 +1741,17 @@
       <c r="G49" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="5" man="1"/>
+    <brk id="17" max="5" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
